--- a/Simper_OTU/stevia.lf_krusk_simper.xlsx
+++ b/Simper_OTU/stevia.lf_krusk_simper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Stevia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Stevia\Simper_OTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{06DDFC27-F603-4135-A24E-69706BC0A652}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4A7D8A0C-8A14-4E4D-A12E-5A115D562768}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
@@ -980,13 +980,12 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="55.109375" customWidth="1"/>
+    <col min="6" max="6" width="88" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1181,131 +1180,131 @@
         <v>1.5687903101232199E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>5.5201910547874003E-2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>1.90648146819343E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>6.0371913159458598E-2</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>2.967550198989E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>2.7323271752167401E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>8.9257370652057993E-2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>5.96519714365841E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>4.9401677300494003E-2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>6.9537450036981405E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>0.16058544574685099</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>7.9279402559810197E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>5.3141210822325403E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>3.9653470082137703E-2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>5.0801681985948401E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>3.7359260801515998E-2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>7.6066790090613706E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>0.16058544574685099</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>4.9083854311632098E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>5.4261152343214603E-2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>4.0080019242163803E-3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>1.1600319028190999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>3.8483645079428003E-2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>7.6066790090613706E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>0.16058544574685099</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>4.9083854311632098E-2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>5.4261152343214603E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>4.0080019242163803E-3</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>1.1600319028190999E-2</v>
       </c>
     </row>
